--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V2 DropDownLists.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V2 DropDownLists.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\003 Course 3 - Intermediate II\01 Week 1\01 Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate 2\week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54397E0-C0BB-4266-9F9B-8AD2E34345BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9168"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Origins">Lists!$E$4:$E$12</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="144">
   <si>
     <t>Location</t>
   </si>
@@ -451,12 +455,18 @@
   </si>
   <si>
     <t>Departments</t>
+  </si>
+  <si>
+    <t>Origins</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -571,7 +581,14 @@
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -618,8 +635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A3:M54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A3:M54" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -635,21 +652,34 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Product Code"/>
-    <tableColumn id="2" name="Item Description"/>
-    <tableColumn id="3" name="Supplier"/>
-    <tableColumn id="4" name="Department"/>
-    <tableColumn id="5" name="Origin"/>
-    <tableColumn id="6" name="Location"/>
-    <tableColumn id="7" name="Rack" dataDxfId="6"/>
-    <tableColumn id="8" name="In Stock" dataDxfId="5"/>
-    <tableColumn id="9" name="Target Level" dataDxfId="4"/>
-    <tableColumn id="10" name="Reorder Level" dataDxfId="3"/>
-    <tableColumn id="11" name="Last Ordered" dataDxfId="2"/>
-    <tableColumn id="12" name="Unit Cost" dataDxfId="1"/>
-    <tableColumn id="13" name="Retail Price" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Department"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Origin"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Rack" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="In Stock" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Target Level" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reorder Level" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Last Ordered" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Unit Cost" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Retail Price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1480832D-620D-4260-BEE3-8D5E85BF48B6}" name="Table2" displayName="Table2" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
+  <autoFilter ref="E3:E12" xr:uid="{DD289528-4AC3-4279-92FB-E7731CF68A0E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:E11">
+    <sortCondition ref="E3:E11"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{58F01570-AFFC-4FBA-8F79-4899EEEDDB93}" name="Origins"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -949,10 +979,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3179,13 +3211,19 @@
       <c r="O54" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54">
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54">
+    <dataValidation type="textLength" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F54" xr:uid="{F674FC65-75D7-4C6D-A426-51426F155213}">
+      <formula1>"Basemnet,Showroom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54" xr:uid="{A7DC3B88-7C50-4EE2-A6B1-A4725317AF81}">
+      <formula1>Origins</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3197,10 +3235,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3228,7 +3268,9 @@
       <c r="C3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3237,6 +3279,9 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3245,6 +3290,9 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3253,6 +3301,9 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3261,6 +3312,9 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3269,6 +3323,9 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3277,13 +3334,32 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>